--- a/WellSurvey.xlsx
+++ b/WellSurvey.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Github\Thesis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\qm43\Documents\GitHub\Thesis1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D61EB20-71D5-4694-B628-DF2C79A3EA75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68A194AA-1F6A-4263-B25D-7D57979FCD10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E4E3D06A-0216-465D-88D8-BF2A72268682}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E4E3D06A-0216-465D-88D8-BF2A72268682}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>Plot</t>
   </si>
@@ -69,60 +69,39 @@
     <t>LB10</t>
   </si>
   <si>
-    <t>Elevation of plot (ft asl)</t>
-  </si>
-  <si>
     <t>Elevation of plot (m asl)</t>
   </si>
   <si>
-    <t>Surface Water Elevation (ft)</t>
-  </si>
-  <si>
     <t>Surface Water Elevation (m)</t>
   </si>
   <si>
-    <t>Difference between plot and river stage</t>
-  </si>
-  <si>
     <t>Well 9</t>
   </si>
   <si>
     <t>GW level at minimum</t>
   </si>
   <si>
-    <t>Difference between plot and GW level</t>
-  </si>
-  <si>
-    <t>Distance to river (ft)</t>
-  </si>
-  <si>
     <t>Distance to river (m)</t>
   </si>
   <si>
     <t>Difference between plot and well elevation</t>
+  </si>
+  <si>
+    <t>% Change from original survey</t>
+  </si>
+  <si>
+    <t>Difference between plot and river stage (m)</t>
+  </si>
+  <si>
+    <t>Difference between plot and GW level(m)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -136,24 +115,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00B0F0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -168,72 +135,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -252,9 +155,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -292,7 +195,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -398,7 +301,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -540,7 +443,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -548,25 +451,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA4E3662-ED1F-468F-AA9D-DF5028508A66}">
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.85546875" customWidth="1"/>
-    <col min="5" max="5" width="28.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="28.42578125" style="21" customWidth="1"/>
-    <col min="8" max="8" width="37.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="35.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="40.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.5703125" customWidth="1"/>
+    <col min="2" max="2" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.42578125" customWidth="1"/>
+    <col min="5" max="5" width="37.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="44.140625" customWidth="1"/>
+    <col min="7" max="7" width="40.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="28.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -577,439 +480,329 @@
         <v>12</v>
       </c>
       <c r="D1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F1" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="21" t="s">
-        <v>20</v>
+      <c r="G1" t="s">
+        <v>16</v>
       </c>
       <c r="H1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4">
-        <v>2953.6850359999999</v>
+      <c r="B2">
+        <v>900.23926729655579</v>
       </c>
       <c r="C2">
-        <f>B2/3.281</f>
-        <v>900.23926729655579</v>
-      </c>
-      <c r="D2" s="3">
-        <v>2952.3992840000001</v>
+        <v>899.84738921060648</v>
+      </c>
+      <c r="D2">
+        <v>9.1770801584882644</v>
       </c>
       <c r="E2">
-        <f>D2/3.281</f>
-        <v>899.84738921060648</v>
-      </c>
-      <c r="F2" s="21">
-        <f>30.61-0.5</f>
-        <v>30.11</v>
-      </c>
-      <c r="G2" s="21">
-        <f>F2/3.281</f>
-        <v>9.1770801584882644</v>
+        <f>B2-C2</f>
+        <v>0.39187808594931539</v>
+      </c>
+      <c r="F2">
+        <f>B2-$B$13</f>
+        <v>0.22821944529096072</v>
+      </c>
+      <c r="G2">
+        <f>B2-$B$12</f>
+        <v>-0.44178055470899835</v>
       </c>
       <c r="H2">
-        <f>C2-E2</f>
-        <v>0.39187808594931539</v>
-      </c>
-      <c r="I2">
-        <f>C2-$D$12</f>
-        <v>0.22821944529096072</v>
-      </c>
-      <c r="J2">
-        <f>C2-$C$12</f>
-        <v>-0.44178055470899835</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="6">
-        <v>2954.033606</v>
-      </c>
-      <c r="C3" s="19">
-        <f t="shared" ref="C3:C12" si="0">B3/3.281</f>
+      <c r="B3">
         <v>900.34550624809503</v>
       </c>
-      <c r="D3" s="5">
-        <v>2952.767245</v>
-      </c>
-      <c r="E3" s="19">
-        <f t="shared" ref="E3:E11" si="1">D3/3.281</f>
+      <c r="C3">
         <v>899.95953825053334</v>
       </c>
-      <c r="F3" s="21">
-        <v>81</v>
-      </c>
-      <c r="G3" s="21">
-        <f t="shared" ref="G3:G11" si="2">F3/3.281</f>
+      <c r="D3">
         <v>24.687595245352025</v>
       </c>
-      <c r="H3" s="19">
-        <f>C3-E3</f>
+      <c r="E3">
+        <f>B3-C3</f>
         <v>0.38596799756169275</v>
       </c>
-      <c r="I3" s="21">
-        <f>C3-$D$12</f>
+      <c r="F3">
+        <f t="shared" ref="F3:F11" si="0">B3-$B$13</f>
         <v>0.3344583968302004</v>
       </c>
-      <c r="J3" s="21">
-        <f t="shared" ref="J3:J11" si="3">C3-$C$12</f>
+      <c r="G3">
+        <f>B3-$B$12</f>
         <v>-0.33554160316975867</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="1">
-        <v>2954.1398380000001</v>
-      </c>
-      <c r="C4" s="19">
+      <c r="B4">
+        <v>900.37788418165189</v>
+      </c>
+      <c r="C4">
+        <v>900.33940292593718</v>
+      </c>
+      <c r="D4">
+        <v>46.927765925022854</v>
+      </c>
+      <c r="E4">
+        <f>B4-C4</f>
+        <v>3.848125571471428E-2</v>
+      </c>
+      <c r="F4">
         <f t="shared" si="0"/>
-        <v>900.37788418165189</v>
-      </c>
-      <c r="D4" s="2">
-        <v>2954.0135810000002</v>
-      </c>
-      <c r="E4" s="19">
-        <f t="shared" si="1"/>
-        <v>900.33940292593718</v>
-      </c>
-      <c r="F4" s="21">
-        <f>155.04-1.07</f>
-        <v>153.97</v>
-      </c>
-      <c r="G4" s="21">
-        <f t="shared" si="2"/>
-        <v>46.927765925022854</v>
-      </c>
-      <c r="H4" s="19">
-        <f>C4-E4</f>
-        <v>3.848125571471428E-2</v>
-      </c>
-      <c r="I4" s="21">
-        <f>C4-$D$12</f>
         <v>0.36683633038705921</v>
       </c>
-      <c r="J4" s="21">
-        <f t="shared" si="3"/>
+      <c r="G4">
+        <f>B4-$B$12</f>
         <v>-0.30316366961289987</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H4">
+        <v>92.030360531309299</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="23">
-        <v>2954.6400189999999</v>
-      </c>
-      <c r="C5" s="19">
+      <c r="B5">
+        <v>900.53033191100269</v>
+      </c>
+      <c r="C5">
+        <v>900.45578725998166</v>
+      </c>
+      <c r="D5">
+        <v>43.968302346845476</v>
+      </c>
+      <c r="E5">
+        <f>B5-C5</f>
+        <v>7.4544651021028585E-2</v>
+      </c>
+      <c r="F5">
         <f t="shared" si="0"/>
-        <v>900.53033191100269</v>
-      </c>
-      <c r="D5" s="7">
-        <v>2954.395438</v>
-      </c>
-      <c r="E5" s="19">
-        <f t="shared" si="1"/>
-        <v>900.45578725998166</v>
-      </c>
-      <c r="F5" s="21">
-        <f>145.27-1.01</f>
-        <v>144.26000000000002</v>
-      </c>
-      <c r="G5" s="21">
-        <f t="shared" si="2"/>
-        <v>43.968302346845476</v>
-      </c>
-      <c r="H5" s="19">
-        <f>C5-E5</f>
-        <v>7.4544651021028585E-2</v>
-      </c>
-      <c r="I5" s="21">
-        <f>C5-$D$12</f>
         <v>0.5192840597378563</v>
       </c>
-      <c r="J5" s="21">
-        <f t="shared" si="3"/>
+      <c r="G5">
+        <f>B5-$B$12</f>
         <v>-0.15071594026210278</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H5">
+        <v>264.30107526881721</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="9">
-        <v>2954.6239420000002</v>
-      </c>
-      <c r="C6" s="19">
+      <c r="B6">
+        <v>900.52543188052425</v>
+      </c>
+      <c r="C6">
+        <v>900.38451325815299</v>
+      </c>
+      <c r="D6">
+        <v>49.018591892715641</v>
+      </c>
+      <c r="E6">
+        <f>B6-C6</f>
+        <v>0.14091862237125952</v>
+      </c>
+      <c r="F6">
         <f t="shared" si="0"/>
-        <v>900.52543188052425</v>
-      </c>
-      <c r="D6" s="8">
-        <v>2954.1615879999999</v>
-      </c>
-      <c r="E6" s="19">
-        <f t="shared" si="1"/>
-        <v>900.38451325815299</v>
-      </c>
-      <c r="F6" s="21">
-        <f>163.71-2.88</f>
-        <v>160.83000000000001</v>
-      </c>
-      <c r="G6" s="21">
-        <f t="shared" si="2"/>
-        <v>49.018591892715641</v>
-      </c>
-      <c r="H6" s="19">
-        <f>C6-E6</f>
-        <v>0.14091862237125952</v>
-      </c>
-      <c r="I6" s="21">
-        <f>C6-$D$12</f>
         <v>0.51438402925941773</v>
       </c>
-      <c r="J6" s="21">
-        <f t="shared" si="3"/>
+      <c r="G6">
+        <f>B6-$B$12</f>
         <v>-0.15561597074054134</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H6">
+        <v>-57.692307692307701</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="11">
-        <v>2956.4126930000002</v>
-      </c>
-      <c r="C7" s="19">
+      <c r="B7">
+        <v>901.07061658031091</v>
+      </c>
+      <c r="C7">
+        <v>899.65611307528184</v>
+      </c>
+      <c r="D7">
+        <v>8.7320938738189575</v>
+      </c>
+      <c r="E7">
+        <f>B7-C7</f>
+        <v>1.4145035050290744</v>
+      </c>
+      <c r="F7">
         <f t="shared" si="0"/>
-        <v>901.07061658031091</v>
-      </c>
-      <c r="D7" s="10">
-        <v>2951.7717069999999</v>
-      </c>
-      <c r="E7" s="19">
-        <f t="shared" si="1"/>
-        <v>899.65611307528184</v>
-      </c>
-      <c r="F7" s="21">
-        <f>30.31-1.66</f>
-        <v>28.65</v>
-      </c>
-      <c r="G7" s="21">
-        <f t="shared" si="2"/>
-        <v>8.7320938738189575</v>
-      </c>
-      <c r="H7" s="19">
-        <f>C7-E7</f>
-        <v>1.4145035050290744</v>
-      </c>
-      <c r="I7" s="21">
-        <f>C7-$D$12</f>
         <v>1.0595687290460774</v>
       </c>
-      <c r="J7" s="21">
-        <f t="shared" si="3"/>
+      <c r="G7">
+        <f>B7-$B$12</f>
         <v>0.38956872904611828</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H7">
+        <v>-70</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="13">
-        <v>2956.1091999999999</v>
-      </c>
-      <c r="C8" s="19">
+      <c r="B8">
+        <v>900.97811642791828</v>
+      </c>
+      <c r="C8">
+        <v>900.18776135324583</v>
+      </c>
+      <c r="D8">
+        <v>9.8719902468759528</v>
+      </c>
+      <c r="E8">
+        <f>B8-C8</f>
+        <v>0.7903550746724477</v>
+      </c>
+      <c r="F8">
         <f t="shared" si="0"/>
-        <v>900.97811642791828</v>
-      </c>
-      <c r="D8" s="12">
-        <v>2953.5160449999998</v>
-      </c>
-      <c r="E8" s="19">
-        <f t="shared" si="1"/>
-        <v>900.18776135324583</v>
-      </c>
-      <c r="F8" s="21">
-        <v>32.39</v>
-      </c>
-      <c r="G8" s="21">
-        <f t="shared" si="2"/>
-        <v>9.8719902468759528</v>
-      </c>
-      <c r="H8" s="19">
-        <f>C8-E8</f>
-        <v>0.7903550746724477</v>
-      </c>
-      <c r="I8" s="21">
-        <f>C8-$D$12</f>
         <v>0.96706857665344614</v>
       </c>
-      <c r="J8" s="21">
-        <f t="shared" si="3"/>
+      <c r="G8">
+        <f>B8-$B$12</f>
         <v>0.29706857665348707</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H8">
+        <v>-93.333333333333329</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="15">
-        <v>2956.7841990000002</v>
-      </c>
-      <c r="C9" s="19">
+      <c r="B9">
+        <v>901.18384608351118</v>
+      </c>
+      <c r="C9">
+        <v>900.20786101798228</v>
+      </c>
+      <c r="D9">
+        <v>19.460530326120086</v>
+      </c>
+      <c r="E9">
+        <f>B9-C9</f>
+        <v>0.97598506552890285</v>
+      </c>
+      <c r="F9">
         <f t="shared" si="0"/>
-        <v>901.18384608351118</v>
-      </c>
-      <c r="D9" s="14">
-        <v>2953.5819919999999</v>
-      </c>
-      <c r="E9" s="19">
-        <f t="shared" si="1"/>
-        <v>900.20786101798228</v>
-      </c>
-      <c r="F9" s="21">
-        <f>65-1.15</f>
-        <v>63.85</v>
-      </c>
-      <c r="G9" s="21">
-        <f t="shared" si="2"/>
-        <v>19.460530326120086</v>
-      </c>
-      <c r="H9" s="19">
-        <f>C9-E9</f>
-        <v>0.97598506552890285</v>
-      </c>
-      <c r="I9" s="21">
-        <f>C9-$D$12</f>
         <v>1.1727982322463504</v>
       </c>
-      <c r="J9" s="21">
-        <f t="shared" si="3"/>
+      <c r="G9">
+        <f>B9-$B$12</f>
         <v>0.50279823224639131</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H9">
+        <v>-95.833333333333329</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="17">
-        <v>2954.0164399999999</v>
-      </c>
-      <c r="C10" s="19">
+      <c r="B10">
+        <v>900.34027430661376</v>
+      </c>
+      <c r="C10">
+        <v>900.84471289241083</v>
+      </c>
+      <c r="D10">
+        <v>31.819567205120386</v>
+      </c>
+      <c r="E10">
+        <f>B10-C10</f>
+        <v>-0.50443858579706102</v>
+      </c>
+      <c r="F10">
         <f t="shared" si="0"/>
-        <v>900.34027430661376</v>
-      </c>
-      <c r="D10" s="16">
-        <v>2955.671503</v>
-      </c>
-      <c r="E10" s="19">
-        <f t="shared" si="1"/>
-        <v>900.84471289241083</v>
-      </c>
-      <c r="F10" s="21">
-        <f>106.32-1.92</f>
-        <v>104.39999999999999</v>
-      </c>
-      <c r="G10" s="21">
-        <f t="shared" si="2"/>
-        <v>31.819567205120386</v>
-      </c>
-      <c r="H10" s="19">
-        <f>C10-E10</f>
-        <v>-0.50443858579706102</v>
-      </c>
-      <c r="I10" s="21">
-        <f>C10-$D$12</f>
         <v>0.32922645534893036</v>
       </c>
-      <c r="J10" s="21">
-        <f t="shared" si="3"/>
+      <c r="G10">
+        <f>B10-$B$12</f>
         <v>-0.34077354465102871</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H10">
+        <v>55.102040816326536</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="20">
-        <v>2958.134622</v>
-      </c>
-      <c r="C11" s="19">
+      <c r="B11">
+        <v>901.59543492837543</v>
+      </c>
+      <c r="C11">
+        <v>901.27420268210915</v>
+      </c>
+      <c r="D11">
+        <v>4.6723559890277349</v>
+      </c>
+      <c r="E11">
+        <f>B11-C11</f>
+        <v>0.32123224626627689</v>
+      </c>
+      <c r="F11">
         <f t="shared" si="0"/>
-        <v>901.59543492837543</v>
-      </c>
-      <c r="D11" s="18">
-        <v>2957.0806590000002</v>
-      </c>
-      <c r="E11" s="19">
-        <f t="shared" si="1"/>
-        <v>901.27420268210915</v>
-      </c>
-      <c r="F11" s="21">
-        <v>15.33</v>
-      </c>
-      <c r="G11" s="21">
-        <f t="shared" si="2"/>
-        <v>4.6723559890277349</v>
-      </c>
-      <c r="H11" s="19">
-        <f>C11-E11</f>
-        <v>0.32123224626627689</v>
-      </c>
-      <c r="I11" s="24">
-        <f>C11-E11</f>
-        <v>0.32123224626627689</v>
-      </c>
-      <c r="J11" s="21">
-        <f t="shared" si="3"/>
+        <v>1.5843870771105912</v>
+      </c>
+      <c r="G11">
+        <f>B11-$B$12</f>
         <v>0.91438707711063216</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H11">
+        <v>130.69053708439895</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" s="23">
-        <v>2955.1345179999998</v>
-      </c>
-      <c r="C12" s="21">
-        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B12">
         <v>900.68104785126479</v>
       </c>
-      <c r="D12" s="22">
-        <f>C12-0.67</f>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13">
         <v>900.01104785126483</v>
       </c>
-      <c r="I12" s="21"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D13" t="s">
-        <v>17</v>
-      </c>
-      <c r="I13" s="21"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
